--- a/DataToIsocor/Example.xlsx
+++ b/DataToIsocor/Example.xlsx
@@ -842,6 +842,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,9 +860,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,10 +886,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1196,7 +1196,7 @@
   <dimension ref="B1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <v>42802</v>
       </c>
     </row>
@@ -1232,10 +1232,10 @@
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="42"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="36" t="s">
@@ -1246,10 +1246,10 @@
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="40" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -1366,10 +1366,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1389,8 +1389,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -1431,7 +1431,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1452,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1473,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -1517,7 +1517,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -1538,7 +1538,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1580,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -1601,7 +1601,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1643,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -1666,7 +1666,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1687,7 +1687,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1708,7 +1708,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="16" t="s">
         <v>28</v>
       </c>
@@ -1750,7 +1750,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -1773,7 +1773,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -1794,7 +1794,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1815,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="51"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="20" t="s">
         <v>28</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -1880,7 +1880,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="15" t="s">
         <v>25</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="15" t="s">
         <v>26</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="15" t="s">
         <v>27</v>
       </c>
@@ -1943,7 +1943,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="14" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="51"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="14" t="s">
         <v>29</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -2008,7 +2008,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2029,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>26</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>27</v>
       </c>
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="14" t="s">
         <v>28</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="16" t="s">
         <v>29</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>25</v>
       </c>
@@ -2157,7 +2157,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="14" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="18" t="s">
@@ -2201,7 +2201,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>25</v>
       </c>
@@ -2222,7 +2222,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="41"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="14" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="41"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="14" t="s">
         <v>27</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>28</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>29</v>
       </c>
@@ -2306,7 +2306,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="16" t="s">
         <v>30</v>
       </c>
@@ -2327,7 +2327,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>25</v>
       </c>
@@ -2371,7 +2371,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="41"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="14" t="s">
         <v>26</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="41"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="14" t="s">
         <v>27</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>28</v>
       </c>
@@ -2434,7 +2434,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>29</v>
       </c>
@@ -2455,7 +2455,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="14" t="s">
         <v>30</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C60" s="18" t="s">
@@ -2499,7 +2499,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>25</v>
       </c>
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="41"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="14" t="s">
         <v>26</v>
       </c>
@@ -2541,7 +2541,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="41"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="14" t="s">
         <v>27</v>
       </c>
@@ -2562,7 +2562,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>28</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>29</v>
       </c>
@@ -2604,7 +2604,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="16" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -2648,7 +2648,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="41"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="14" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2669,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="14" t="s">
         <v>26</v>
       </c>
@@ -2690,7 +2690,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>27</v>
       </c>
@@ -2711,7 +2711,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>28</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>29</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="42"/>
+      <c r="B73" s="45"/>
       <c r="C73" s="14" t="s">
         <v>30</v>
       </c>
@@ -2774,7 +2774,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="18" t="s">
@@ -2797,7 +2797,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>25</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>26</v>
       </c>
@@ -2839,7 +2839,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>27</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="41"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="14" t="s">
         <v>28</v>
       </c>
@@ -2881,7 +2881,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="16" t="s">
         <v>29</v>
       </c>
@@ -2902,7 +2902,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>25</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>26</v>
       </c>
@@ -2967,7 +2967,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>27</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="41"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="14" t="s">
         <v>28</v>
       </c>
@@ -3009,7 +3009,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="41"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="14" t="s">
         <v>29</v>
       </c>
@@ -3030,7 +3030,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>30</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>31</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="41"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="14" t="s">
         <v>32</v>
       </c>
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="42"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="14" t="s">
         <v>33</v>
       </c>
@@ -3114,7 +3114,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="18" t="s">
@@ -3137,7 +3137,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>25</v>
       </c>
@@ -3158,7 +3158,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>26</v>
       </c>
@@ -3179,7 +3179,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="41"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="14" t="s">
         <v>27</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="41"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="14" t="s">
         <v>28</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="42"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="16" t="s">
         <v>29</v>
       </c>
@@ -3242,7 +3242,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C96" s="18" t="s">
@@ -3265,7 +3265,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>25</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>26</v>
       </c>
@@ -3307,7 +3307,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="42"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="16" t="s">
         <v>27</v>
       </c>
@@ -3328,7 +3328,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="18" t="s">
@@ -3351,7 +3351,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>25</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>26</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="41"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="14" t="s">
         <v>27</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="42"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="16" t="s">
         <v>28</v>
       </c>
@@ -3435,7 +3435,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="18" t="s">
@@ -3458,7 +3458,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>25</v>
       </c>
@@ -3479,7 +3479,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>26</v>
       </c>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>27</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="41"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="14" t="s">
         <v>28</v>
       </c>
@@ -3542,7 +3542,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="41"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="14" t="s">
         <v>29</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="41"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="14" t="s">
         <v>30</v>
       </c>
@@ -3584,7 +3584,7 @@
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="41"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="14" t="s">
         <v>31</v>
       </c>
@@ -3605,7 +3605,7 @@
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="41"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="14" t="s">
         <v>32</v>
       </c>
@@ -3626,7 +3626,7 @@
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="41"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="14" t="s">
         <v>33</v>
       </c>
@@ -3647,7 +3647,7 @@
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="41"/>
+      <c r="B115" s="44"/>
       <c r="C115" s="14" t="s">
         <v>34</v>
       </c>
@@ -3668,7 +3668,7 @@
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="42"/>
+      <c r="B116" s="45"/>
       <c r="C116" s="16" t="s">
         <v>35</v>
       </c>
@@ -3689,7 +3689,7 @@
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="40" t="s">
+      <c r="B117" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -3712,7 +3712,7 @@
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="41"/>
+      <c r="B118" s="44"/>
       <c r="C118" s="14" t="s">
         <v>25</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="41"/>
+      <c r="B119" s="44"/>
       <c r="C119" s="14" t="s">
         <v>26</v>
       </c>
@@ -3754,7 +3754,7 @@
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="41"/>
+      <c r="B120" s="44"/>
       <c r="C120" s="14" t="s">
         <v>27</v>
       </c>
@@ -3775,7 +3775,7 @@
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="41"/>
+      <c r="B121" s="44"/>
       <c r="C121" s="14" t="s">
         <v>28</v>
       </c>
@@ -3796,7 +3796,7 @@
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="41"/>
+      <c r="B122" s="44"/>
       <c r="C122" s="14" t="s">
         <v>29</v>
       </c>
@@ -3817,7 +3817,7 @@
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="41"/>
+      <c r="B123" s="44"/>
       <c r="C123" s="14" t="s">
         <v>30</v>
       </c>
@@ -3838,7 +3838,7 @@
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="41"/>
+      <c r="B124" s="44"/>
       <c r="C124" s="14" t="s">
         <v>31</v>
       </c>
@@ -3859,7 +3859,7 @@
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="41"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="14" t="s">
         <v>32</v>
       </c>
@@ -3880,7 +3880,7 @@
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="42"/>
+      <c r="B126" s="45"/>
       <c r="C126" s="14" t="s">
         <v>33</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="18" t="s">
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="41"/>
+      <c r="B128" s="44"/>
       <c r="C128" s="14" t="s">
         <v>25</v>
       </c>
@@ -3945,7 +3945,7 @@
       </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="41"/>
+      <c r="B129" s="44"/>
       <c r="C129" s="14" t="s">
         <v>26</v>
       </c>
@@ -3966,7 +3966,7 @@
       </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="41"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="14" t="s">
         <v>27</v>
       </c>
@@ -3987,7 +3987,7 @@
       </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="41"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="14" t="s">
         <v>28</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
     </row>
     <row r="132" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="43"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="29" t="s">
         <v>29</v>
       </c>
@@ -4030,6 +4030,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="B117:B126"/>
+    <mergeCell ref="B105:B116"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B80:B89"/>
     <mergeCell ref="B53:B59"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B8:B9"/>
@@ -4041,16 +4051,6 @@
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="B67:B73"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B127:B132"/>
-    <mergeCell ref="B117:B126"/>
-    <mergeCell ref="B105:B116"/>
-    <mergeCell ref="B90:B95"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B80:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4077,7 +4077,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -4120,10 +4120,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -4143,8 +4143,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -4185,7 +4185,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -4206,7 +4206,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -4227,7 +4227,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -4248,7 +4248,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -4271,7 +4271,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -4292,7 +4292,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -4334,7 +4334,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -4355,7 +4355,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -4376,7 +4376,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -4397,7 +4397,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -4420,7 +4420,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -4441,7 +4441,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -4462,7 +4462,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -4483,7 +4483,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -4504,7 +4504,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -4527,7 +4527,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -4548,7 +4548,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -4569,7 +4569,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -4590,7 +4590,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -4611,7 +4611,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -4655,7 +4655,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -4676,7 +4676,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -4697,7 +4697,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -4720,7 +4720,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -4762,7 +4762,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -4783,7 +4783,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -4804,7 +4804,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -4825,7 +4825,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -4846,7 +4846,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -4869,7 +4869,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -4890,7 +4890,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -4911,7 +4911,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -4953,7 +4953,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -4974,7 +4974,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -4995,7 +4995,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -5018,7 +5018,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -5039,7 +5039,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -5060,7 +5060,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -5081,7 +5081,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -5102,7 +5102,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +5144,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -5167,7 +5167,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5188,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -5230,7 +5230,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -5251,7 +5251,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -5272,7 +5272,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -5293,7 +5293,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -5316,7 +5316,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -5337,7 +5337,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -5358,7 +5358,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -5379,7 +5379,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -5400,7 +5400,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -5421,7 +5421,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -5444,7 +5444,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -5465,7 +5465,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -5486,7 +5486,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -5507,7 +5507,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -5528,7 +5528,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -5549,7 +5549,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -5570,7 +5570,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -5591,7 +5591,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -5633,7 +5633,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -5656,7 +5656,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -5677,7 +5677,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -5698,7 +5698,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -5740,7 +5740,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -5761,7 +5761,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -5784,7 +5784,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -5826,7 +5826,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -5847,7 +5847,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -5870,7 +5870,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -5891,7 +5891,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -5912,7 +5912,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -5954,7 +5954,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -5977,7 +5977,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -6019,7 +6019,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -6040,7 +6040,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -6061,7 +6061,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -6103,7 +6103,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -6124,7 +6124,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -6166,7 +6166,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -6189,7 +6189,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -6210,7 +6210,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -6231,7 +6231,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -6273,7 +6273,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -6295,6 +6295,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -6307,12 +6313,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6339,7 +6339,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -6425,8 +6425,8 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -6459,7 +6459,7 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -6487,7 +6487,7 @@
       <c r="M10" s="25"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -6539,7 +6539,7 @@
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -6565,7 +6565,7 @@
       <c r="M13" s="27"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -6593,7 +6593,7 @@
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -6645,7 +6645,7 @@
       <c r="M16" s="26"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="M17" s="26"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -6697,7 +6697,7 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -6723,7 +6723,7 @@
       <c r="M19" s="26"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -6749,7 +6749,7 @@
       <c r="M20" s="27"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -6777,7 +6777,7 @@
       <c r="M21" s="26"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="M22" s="26"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="M23" s="26"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -6855,7 +6855,7 @@
       <c r="M24" s="26"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -6881,7 +6881,7 @@
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -6909,7 +6909,7 @@
       <c r="M26" s="28"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="M28" s="26"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -6987,7 +6987,7 @@
       <c r="M29" s="26"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -7013,7 +7013,7 @@
       <c r="M30" s="26"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="44" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -7067,7 +7067,7 @@
       <c r="M32" s="26"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -7093,7 +7093,7 @@
       <c r="M33" s="26"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="M34" s="26"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -7147,7 +7147,7 @@
       <c r="M35" s="28"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="M36" s="26"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="M37" s="26"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="M38" s="26"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -7251,7 +7251,7 @@
       <c r="M39" s="26"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="M40" s="26"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -7303,7 +7303,7 @@
       <c r="M41" s="27"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -7331,7 +7331,7 @@
       <c r="M42" s="26"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -7357,7 +7357,7 @@
       <c r="M43" s="26"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="M44" s="26"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="M45" s="26"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="M46" s="26"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -7461,7 +7461,7 @@
       <c r="M47" s="26"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -7487,7 +7487,7 @@
       <c r="M48" s="26"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -7515,7 +7515,7 @@
       <c r="M49" s="28"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -7541,7 +7541,7 @@
       <c r="M50" s="26"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -7567,7 +7567,7 @@
       <c r="M51" s="26"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="M52" s="26"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="M53" s="26"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="M54" s="26"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="M55" s="27"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -7699,7 +7699,7 @@
       <c r="M56" s="26"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="M57" s="26"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="M58" s="26"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="M59" s="26"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="M60" s="26"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="M61" s="26"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="M62" s="26"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -7883,7 +7883,7 @@
       <c r="M63" s="28"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -7909,7 +7909,7 @@
       <c r="M64" s="26"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="M65" s="26"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -7961,7 +7961,7 @@
       <c r="M66" s="26"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="M67" s="26"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="M68" s="27"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -8041,7 +8041,7 @@
       <c r="M69" s="26"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -8067,7 +8067,7 @@
       <c r="M70" s="26"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -8093,7 +8093,7 @@
       <c r="M71" s="26"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="M72" s="26"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -8145,7 +8145,7 @@
       <c r="M73" s="26"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="M74" s="26"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="M75" s="26"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -8223,7 +8223,7 @@
       <c r="M76" s="26"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -8249,7 +8249,7 @@
       <c r="M77" s="26"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -8275,7 +8275,7 @@
       <c r="M78" s="26"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -8303,7 +8303,7 @@
       <c r="M79" s="28"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="M80" s="26"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -8355,7 +8355,7 @@
       <c r="M81" s="26"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="M82" s="26"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="M83" s="26"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="M84" s="27"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -8461,7 +8461,7 @@
       <c r="M85" s="28"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="M86" s="26"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="M87" s="26"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="M88" s="27"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -8567,7 +8567,7 @@
       <c r="M89" s="28"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -8593,7 +8593,7 @@
       <c r="M90" s="26"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="M91" s="26"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -8645,7 +8645,7 @@
       <c r="M92" s="26"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -8671,7 +8671,7 @@
       <c r="M93" s="27"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -8699,7 +8699,7 @@
       <c r="M94" s="26"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="M95" s="26"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -8751,7 +8751,7 @@
       <c r="M96" s="26"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -8777,7 +8777,7 @@
       <c r="M97" s="26"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -8803,7 +8803,7 @@
       <c r="M98" s="26"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -8829,7 +8829,7 @@
       <c r="M99" s="26"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="M100" s="26"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -8881,7 +8881,7 @@
       <c r="M101" s="26"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -8907,7 +8907,7 @@
       <c r="M102" s="26"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -8933,7 +8933,7 @@
       <c r="M103" s="26"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -8961,7 +8961,7 @@
       <c r="M104" s="28"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -8987,7 +8987,7 @@
       <c r="M105" s="26"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -9013,7 +9013,7 @@
       <c r="M106" s="26"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -9039,7 +9039,7 @@
       <c r="M107" s="26"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -9065,7 +9065,7 @@
       <c r="M108" s="26"/>
     </row>
     <row r="109" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -9092,6 +9092,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B49:B55"/>
@@ -9100,16 +9110,6 @@
     <mergeCell ref="B69:B78"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9136,7 +9136,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -9179,10 +9179,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -9202,8 +9202,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -9221,7 +9221,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -9244,7 +9244,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -9265,7 +9265,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -9286,7 +9286,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -9307,7 +9307,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -9330,7 +9330,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -9351,7 +9351,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -9372,7 +9372,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -9414,7 +9414,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -9435,7 +9435,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -9456,7 +9456,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9479,7 +9479,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -9500,7 +9500,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -9521,7 +9521,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -9542,7 +9542,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -9563,7 +9563,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -9586,7 +9586,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -9607,7 +9607,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -9628,7 +9628,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -9649,7 +9649,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -9691,7 +9691,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -9714,7 +9714,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -9735,7 +9735,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -9756,7 +9756,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -9800,7 +9800,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -9821,7 +9821,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -9842,7 +9842,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -9884,7 +9884,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -9905,7 +9905,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -9928,7 +9928,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -9949,7 +9949,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -9970,7 +9970,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -9991,7 +9991,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -10012,7 +10012,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -10033,7 +10033,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -10054,7 +10054,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -10077,7 +10077,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -10098,7 +10098,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -10119,7 +10119,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -10140,7 +10140,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -10161,7 +10161,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -10182,7 +10182,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -10203,7 +10203,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -10226,7 +10226,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -10268,7 +10268,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -10289,7 +10289,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -10310,7 +10310,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -10331,7 +10331,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -10352,7 +10352,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -10375,7 +10375,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -10396,7 +10396,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -10417,7 +10417,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -10438,7 +10438,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -10459,7 +10459,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -10480,7 +10480,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -10503,7 +10503,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -10545,7 +10545,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -10566,7 +10566,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -10587,7 +10587,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -10608,7 +10608,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -10629,7 +10629,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -10650,7 +10650,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -10692,7 +10692,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -10715,7 +10715,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -10736,7 +10736,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -10757,7 +10757,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -10778,7 +10778,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -10799,7 +10799,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -10820,7 +10820,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -10843,7 +10843,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -10864,7 +10864,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -10885,7 +10885,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -10929,7 +10929,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -10950,7 +10950,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -10971,7 +10971,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -10992,7 +10992,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -11013,7 +11013,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -11036,7 +11036,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -11057,7 +11057,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -11078,7 +11078,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -11099,7 +11099,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -11120,7 +11120,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -11141,7 +11141,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -11162,7 +11162,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -11183,7 +11183,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -11204,7 +11204,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -11225,7 +11225,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -11248,7 +11248,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -11269,7 +11269,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -11290,7 +11290,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -11311,7 +11311,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -11332,7 +11332,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -11354,6 +11354,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -11366,12 +11372,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11398,7 +11398,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -11441,10 +11441,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -11464,8 +11464,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -11506,7 +11506,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -11527,7 +11527,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -11548,7 +11548,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -11569,7 +11569,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -11592,7 +11592,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -11613,7 +11613,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -11634,7 +11634,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -11655,7 +11655,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -11676,7 +11676,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -11697,7 +11697,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -11718,7 +11718,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -11741,7 +11741,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -11762,7 +11762,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -11783,7 +11783,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -11804,7 +11804,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -11825,7 +11825,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -11848,7 +11848,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -11869,7 +11869,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -11890,7 +11890,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -11911,7 +11911,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -11932,7 +11932,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -11953,7 +11953,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -11976,7 +11976,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -11997,7 +11997,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -12018,7 +12018,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -12041,7 +12041,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -12062,7 +12062,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -12083,7 +12083,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -12104,7 +12104,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -12125,7 +12125,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -12146,7 +12146,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -12167,7 +12167,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -12190,7 +12190,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -12211,7 +12211,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -12232,7 +12232,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -12253,7 +12253,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -12274,7 +12274,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -12295,7 +12295,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -12316,7 +12316,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -12339,7 +12339,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -12360,7 +12360,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -12423,7 +12423,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -12444,7 +12444,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -12465,7 +12465,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -12488,7 +12488,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -12509,7 +12509,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -12530,7 +12530,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -12551,7 +12551,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -12572,7 +12572,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -12593,7 +12593,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -12614,7 +12614,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -12637,7 +12637,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -12658,7 +12658,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -12700,7 +12700,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -12721,7 +12721,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -12742,7 +12742,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -12765,7 +12765,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -12786,7 +12786,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -12807,7 +12807,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -12828,7 +12828,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -12849,7 +12849,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -12870,7 +12870,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -12891,7 +12891,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -12912,7 +12912,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -12933,7 +12933,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -12954,7 +12954,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -12977,7 +12977,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -12998,7 +12998,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -13019,7 +13019,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -13040,7 +13040,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -13061,7 +13061,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -13082,7 +13082,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -13105,7 +13105,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -13126,7 +13126,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -13147,7 +13147,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -13168,7 +13168,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -13191,7 +13191,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -13212,7 +13212,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -13233,7 +13233,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -13254,7 +13254,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -13275,7 +13275,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -13298,7 +13298,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -13319,7 +13319,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -13340,7 +13340,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -13361,7 +13361,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -13382,7 +13382,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -13403,7 +13403,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -13424,7 +13424,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -13445,7 +13445,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -13466,7 +13466,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -13487,7 +13487,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -13510,7 +13510,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -13531,7 +13531,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -13552,7 +13552,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -13573,7 +13573,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -13594,7 +13594,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -13616,6 +13616,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -13628,12 +13634,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13660,7 +13660,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -13703,10 +13703,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -13726,8 +13726,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -13745,7 +13745,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -13768,7 +13768,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -13789,7 +13789,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -13810,7 +13810,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -13831,7 +13831,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -13854,7 +13854,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -13875,7 +13875,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -13896,7 +13896,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -13917,7 +13917,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -13938,7 +13938,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -13959,7 +13959,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -13980,7 +13980,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -14003,7 +14003,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -14024,7 +14024,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -14045,7 +14045,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -14066,7 +14066,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -14087,7 +14087,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -14110,7 +14110,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -14131,7 +14131,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -14152,7 +14152,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -14173,7 +14173,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -14194,7 +14194,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -14215,7 +14215,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -14238,7 +14238,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -14259,7 +14259,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -14280,7 +14280,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -14303,7 +14303,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -14324,7 +14324,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -14387,7 +14387,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -14408,7 +14408,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -14429,7 +14429,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -14452,7 +14452,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -14473,7 +14473,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -14494,7 +14494,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -14536,7 +14536,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -14557,7 +14557,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -14578,7 +14578,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -14601,7 +14601,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -14622,7 +14622,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -14643,7 +14643,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -14664,7 +14664,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -14685,7 +14685,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -14706,7 +14706,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -14727,7 +14727,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -14750,7 +14750,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -14771,7 +14771,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -14792,7 +14792,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -14813,7 +14813,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -14834,7 +14834,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -14855,7 +14855,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -14876,7 +14876,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -14899,7 +14899,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -14920,7 +14920,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -14941,7 +14941,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -14962,7 +14962,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -14983,7 +14983,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -15004,7 +15004,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -15027,7 +15027,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -15048,7 +15048,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -15069,7 +15069,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -15090,7 +15090,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -15111,7 +15111,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -15132,7 +15132,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -15153,7 +15153,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -15174,7 +15174,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -15195,7 +15195,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -15216,7 +15216,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -15239,7 +15239,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -15260,7 +15260,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -15281,7 +15281,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -15302,7 +15302,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -15323,7 +15323,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -15344,7 +15344,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -15367,7 +15367,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -15388,7 +15388,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -15409,7 +15409,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -15430,7 +15430,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -15453,7 +15453,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -15474,7 +15474,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -15495,7 +15495,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -15516,7 +15516,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -15537,7 +15537,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -15560,7 +15560,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -15581,7 +15581,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -15602,7 +15602,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -15623,7 +15623,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -15644,7 +15644,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -15665,7 +15665,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -15686,7 +15686,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -15707,7 +15707,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -15728,7 +15728,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -15749,7 +15749,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -15772,7 +15772,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -15793,7 +15793,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -15814,7 +15814,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -15835,7 +15835,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -15856,7 +15856,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -15878,6 +15878,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -15890,12 +15896,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15922,7 +15922,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -15965,10 +15965,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -15988,8 +15988,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -16007,7 +16007,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -16030,7 +16030,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -16051,7 +16051,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -16072,7 +16072,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -16093,7 +16093,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -16116,7 +16116,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -16137,7 +16137,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -16158,7 +16158,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -16179,7 +16179,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -16200,7 +16200,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -16221,7 +16221,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -16242,7 +16242,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -16265,7 +16265,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -16286,7 +16286,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -16307,7 +16307,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -16328,7 +16328,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -16349,7 +16349,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -16372,7 +16372,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -16393,7 +16393,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -16414,7 +16414,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -16435,7 +16435,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -16456,7 +16456,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -16477,7 +16477,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -16500,7 +16500,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -16521,7 +16521,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -16542,7 +16542,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -16565,7 +16565,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -16586,7 +16586,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -16607,7 +16607,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -16628,7 +16628,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -16649,7 +16649,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -16670,7 +16670,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -16691,7 +16691,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -16714,7 +16714,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -16735,7 +16735,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -16756,7 +16756,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -16777,7 +16777,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -16798,7 +16798,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -16819,7 +16819,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -16840,7 +16840,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -16863,7 +16863,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -16884,7 +16884,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -16905,7 +16905,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -16926,7 +16926,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -16947,7 +16947,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -16968,7 +16968,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -16989,7 +16989,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -17012,7 +17012,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -17033,7 +17033,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -17054,7 +17054,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -17075,7 +17075,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -17096,7 +17096,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -17117,7 +17117,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -17138,7 +17138,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -17161,7 +17161,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -17182,7 +17182,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -17203,7 +17203,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -17224,7 +17224,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -17245,7 +17245,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -17266,7 +17266,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -17289,7 +17289,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -17310,7 +17310,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -17331,7 +17331,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -17352,7 +17352,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -17373,7 +17373,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -17394,7 +17394,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -17415,7 +17415,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -17436,7 +17436,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -17457,7 +17457,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -17478,7 +17478,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -17501,7 +17501,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -17522,7 +17522,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -17543,7 +17543,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -17564,7 +17564,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -17585,7 +17585,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -17606,7 +17606,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -17629,7 +17629,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -17650,7 +17650,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -17671,7 +17671,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -17692,7 +17692,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -17715,7 +17715,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -17736,7 +17736,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -17757,7 +17757,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -17778,7 +17778,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -17799,7 +17799,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -17822,7 +17822,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -17843,7 +17843,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -17864,7 +17864,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -17885,7 +17885,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -17906,7 +17906,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -17927,7 +17927,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -17948,7 +17948,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -17969,7 +17969,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -17990,7 +17990,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -18011,7 +18011,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -18034,7 +18034,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -18055,7 +18055,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -18076,7 +18076,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -18097,7 +18097,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -18118,7 +18118,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -18140,6 +18140,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -18152,12 +18158,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18184,7 +18184,7 @@
         <f>'MS parameters'!B2</f>
         <v>Date:</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="38">
         <f>'MS parameters'!C2</f>
         <v>42802</v>
       </c>
@@ -18227,10 +18227,10 @@
     </row>
     <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="46" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -18250,8 +18250,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="47"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="17" t="s">
         <v>38</v>
       </c>
@@ -18269,7 +18269,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -18292,7 +18292,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="14" t="s">
         <v>25</v>
       </c>
@@ -18313,7 +18313,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
@@ -18334,7 +18334,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
@@ -18355,7 +18355,7 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="43" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -18378,7 +18378,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
@@ -18399,7 +18399,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14" t="s">
         <v>26</v>
       </c>
@@ -18420,7 +18420,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
@@ -18441,7 +18441,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="41"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
@@ -18462,7 +18462,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="14" t="s">
         <v>29</v>
       </c>
@@ -18483,7 +18483,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="16" t="s">
         <v>30</v>
       </c>
@@ -18504,7 +18504,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -18527,7 +18527,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
@@ -18548,7 +18548,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="15" t="s">
         <v>26</v>
       </c>
@@ -18569,7 +18569,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="15" t="s">
         <v>27</v>
       </c>
@@ -18590,7 +18590,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="51"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
@@ -18611,7 +18611,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -18634,7 +18634,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -18655,7 +18655,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="15" t="s">
         <v>26</v>
       </c>
@@ -18676,7 +18676,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="15" t="s">
         <v>27</v>
       </c>
@@ -18697,7 +18697,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="14" t="s">
         <v>28</v>
       </c>
@@ -18718,7 +18718,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="51"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="16" t="s">
         <v>29</v>
       </c>
@@ -18739,7 +18739,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -18762,7 +18762,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="41"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="14" t="s">
         <v>25</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="14" t="s">
         <v>26</v>
       </c>
@@ -18804,7 +18804,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -18827,7 +18827,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="41"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="14" t="s">
         <v>25</v>
       </c>
@@ -18848,7 +18848,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="41"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="14" t="s">
         <v>26</v>
       </c>
@@ -18869,7 +18869,7 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="41"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="14" t="s">
         <v>27</v>
       </c>
@@ -18890,7 +18890,7 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="14" t="s">
         <v>28</v>
       </c>
@@ -18911,7 +18911,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -18932,7 +18932,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
@@ -18953,7 +18953,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -18976,7 +18976,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="41"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="14" t="s">
         <v>25</v>
       </c>
@@ -18997,7 +18997,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="41"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="14" t="s">
         <v>26</v>
       </c>
@@ -19018,7 +19018,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="41"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="14" t="s">
         <v>27</v>
       </c>
@@ -19039,7 +19039,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="41"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="14" t="s">
         <v>28</v>
       </c>
@@ -19060,7 +19060,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="41"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
@@ -19081,7 +19081,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="14" t="s">
         <v>30</v>
       </c>
@@ -19102,7 +19102,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="43" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="18" t="s">
@@ -19125,7 +19125,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="14" t="s">
         <v>25</v>
       </c>
@@ -19146,7 +19146,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="14" t="s">
         <v>26</v>
       </c>
@@ -19167,7 +19167,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="41"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="14" t="s">
         <v>27</v>
       </c>
@@ -19188,7 +19188,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="41"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="14" t="s">
         <v>28</v>
       </c>
@@ -19209,7 +19209,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="41"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
@@ -19230,7 +19230,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="16" t="s">
         <v>30</v>
       </c>
@@ -19251,7 +19251,7 @@
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="43" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -19274,7 +19274,7 @@
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="41"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="14" t="s">
         <v>25</v>
       </c>
@@ -19295,7 +19295,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="41"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="14" t="s">
         <v>26</v>
       </c>
@@ -19316,7 +19316,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="41"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="14" t="s">
         <v>27</v>
       </c>
@@ -19337,7 +19337,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="41"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="14" t="s">
         <v>28</v>
       </c>
@@ -19358,7 +19358,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="41"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="14" t="s">
         <v>29</v>
       </c>
@@ -19379,7 +19379,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="42"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="14" t="s">
         <v>30</v>
       </c>
@@ -19400,7 +19400,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
@@ -19423,7 +19423,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="41"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="14" t="s">
         <v>25</v>
       </c>
@@ -19444,7 +19444,7 @@
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="41"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
@@ -19465,7 +19465,7 @@
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="41"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="14" t="s">
         <v>27</v>
       </c>
@@ -19486,7 +19486,7 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="41"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="14" t="s">
         <v>28</v>
       </c>
@@ -19507,7 +19507,7 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="16" t="s">
         <v>29</v>
       </c>
@@ -19528,7 +19528,7 @@
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C69" s="14" t="s">
@@ -19551,7 +19551,7 @@
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="14" t="s">
         <v>25</v>
       </c>
@@ -19572,7 +19572,7 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="14" t="s">
         <v>26</v>
       </c>
@@ -19593,7 +19593,7 @@
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="41"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="14" t="s">
         <v>27</v>
       </c>
@@ -19614,7 +19614,7 @@
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
@@ -19635,7 +19635,7 @@
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
@@ -19656,7 +19656,7 @@
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="14" t="s">
         <v>30</v>
       </c>
@@ -19677,7 +19677,7 @@
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="41"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="14" t="s">
         <v>31</v>
       </c>
@@ -19698,7 +19698,7 @@
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="14" t="s">
         <v>32</v>
       </c>
@@ -19719,7 +19719,7 @@
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="14" t="s">
         <v>33</v>
       </c>
@@ -19740,7 +19740,7 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="43" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="18" t="s">
@@ -19763,7 +19763,7 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="41"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="14" t="s">
         <v>25</v>
       </c>
@@ -19784,7 +19784,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="41"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="14" t="s">
         <v>26</v>
       </c>
@@ -19805,7 +19805,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="41"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="14" t="s">
         <v>27</v>
       </c>
@@ -19826,7 +19826,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="41"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="14" t="s">
         <v>28</v>
       </c>
@@ -19847,7 +19847,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="42"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="16" t="s">
         <v>29</v>
       </c>
@@ -19868,7 +19868,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="18" t="s">
@@ -19891,7 +19891,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="41"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="14" t="s">
         <v>25</v>
       </c>
@@ -19912,7 +19912,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="41"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="14" t="s">
         <v>26</v>
       </c>
@@ -19933,7 +19933,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="42"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="16" t="s">
         <v>27</v>
       </c>
@@ -19954,7 +19954,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="43" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -19977,7 +19977,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="41"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="14" t="s">
         <v>25</v>
       </c>
@@ -19998,7 +19998,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="41"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="14" t="s">
         <v>26</v>
       </c>
@@ -20019,7 +20019,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="41"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="14" t="s">
         <v>27</v>
       </c>
@@ -20040,7 +20040,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="42"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="16" t="s">
         <v>28</v>
       </c>
@@ -20061,7 +20061,7 @@
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C94" s="14" t="s">
@@ -20084,7 +20084,7 @@
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="41"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="14" t="s">
         <v>25</v>
       </c>
@@ -20105,7 +20105,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="41"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="14" t="s">
         <v>26</v>
       </c>
@@ -20126,7 +20126,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="41"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="14" t="s">
         <v>27</v>
       </c>
@@ -20147,7 +20147,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="41"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="14" t="s">
         <v>28</v>
       </c>
@@ -20168,7 +20168,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="41"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="14" t="s">
         <v>29</v>
       </c>
@@ -20189,7 +20189,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="41"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="14" t="s">
         <v>30</v>
       </c>
@@ -20210,7 +20210,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="41"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="14" t="s">
         <v>31</v>
       </c>
@@ -20231,7 +20231,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="41"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="14" t="s">
         <v>32</v>
       </c>
@@ -20252,7 +20252,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="42"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="14" t="s">
         <v>33</v>
       </c>
@@ -20273,7 +20273,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="43" t="s">
         <v>22</v>
       </c>
       <c r="C104" s="18" t="s">
@@ -20296,7 +20296,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B105" s="41"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="14" t="s">
         <v>25</v>
       </c>
@@ -20317,7 +20317,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B106" s="41"/>
+      <c r="B106" s="44"/>
       <c r="C106" s="14" t="s">
         <v>26</v>
       </c>
@@ -20338,7 +20338,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B107" s="41"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="14" t="s">
         <v>27</v>
       </c>
@@ -20359,7 +20359,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B108" s="41"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="14" t="s">
         <v>28</v>
       </c>
@@ -20380,7 +20380,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="43"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="29" t="s">
         <v>29</v>
       </c>
@@ -20402,6 +20402,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B21:B25"/>
     <mergeCell ref="B104:B109"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B41"/>
@@ -20414,12 +20420,6 @@
     <mergeCell ref="B85:B88"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B103"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B20"/>
-    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
